--- a/TPL_currentseason.xlsx
+++ b/TPL_currentseason.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="26160" windowHeight="15825" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="26160" windowHeight="15825" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Groups" sheetId="1" state="visible" r:id="rId1"/>
@@ -889,13 +889,346 @@
   <si>
     <t>Meher Vamshi</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 1. Pankaj &amp; Akshay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Harpreet &amp; David Clerc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3. Kedar &amp; Ramana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4. Eric Salgado &amp; Aaron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5. Trent &amp; Diego Burgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6. Ganesh &amp; Keith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7. Chavel &amp; Randy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   8. Alok &amp; Arun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   9. Madhu &amp; Rajesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10. Prasanna &amp; Richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pankaj &amp; Akshay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harpreet &amp; David Clerc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kedar &amp; Ramana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eric Salgado &amp; Aaron</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trent &amp; Diego Burgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ganesh &amp; Keith</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chavel &amp; Randy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alok &amp; Arun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madhu &amp; Rajesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prasanna &amp; Richard</t>
+  </si>
+  <si>
+    <t>1. David/Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Adil /  Aariz Syed </t>
+  </si>
+  <si>
+    <t>3. Anjum/Suhail</t>
+  </si>
+  <si>
+    <t>4. Srinivas Balusu/ Sriram Venkat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5. Raam/Satheesh</t>
+  </si>
+  <si>
+    <t>6. Lazer/Prasanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7. Arul/Senthil Sainath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8. Raj/ Raj’s Son</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Harshil/ Ayan </t>
+  </si>
+  <si>
+    <t>10. ⁠Logan/ Darshan</t>
+  </si>
+  <si>
+    <t>11. ⁠Gunjan/Mahesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. ⁠Narayan/Karthik Ganesan </t>
+  </si>
+  <si>
+    <t>13. ⁠Leslie/Senthil Kathirvel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> David/Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adil /  Aariz Syed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anjum/Suhail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Srinivas Balusu/ Sriram Venkat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raam/Satheesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lazer/Prasanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arul/Senthil Sainath </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raj/ Raj’s Son</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harshil/ Ayan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ⁠Logan/ Darshan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ⁠Gunjan/Mahesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ⁠Narayan/Karthik Ganesan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ⁠Leslie/Senthil Kathirvel</t>
+  </si>
+  <si>
+    <t>1. Chengwei &amp; Hanson Jin</t>
+  </si>
+  <si>
+    <t>2. Juan &amp; Rohit</t>
+  </si>
+  <si>
+    <t>3. Anil &amp; Dale</t>
+  </si>
+  <si>
+    <t>4. Nihar &amp; Vastalya</t>
+  </si>
+  <si>
+    <t>5. Gunjan &amp; Pinku</t>
+  </si>
+  <si>
+    <t>6. Amit &amp; Chandra</t>
+  </si>
+  <si>
+    <t>7. Dave Kusko &amp; John Kusko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Sam &amp; Amol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Jesus &amp; Francisco Diaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Surya &amp; Srikanth </t>
+  </si>
+  <si>
+    <t>11. Praveen &amp; Arvind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Sunil &amp; Sunny </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. ⁠Anand &amp; Q Javed </t>
+  </si>
+  <si>
+    <t>14. ⁠Ravinder &amp; Rohit Mahapatra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chengwei &amp; Hanson Jin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juan &amp; Rohit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anil &amp; Dale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nihar &amp; Vastalya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gunjan &amp; Pinku</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amit &amp; Chandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dave Kusko &amp; John Kusko</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sam &amp; Amol </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jesus &amp; Francisco Diaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Surya &amp; Srikanth </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Praveen &amp; Arvind</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sunil &amp; Sunny </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ⁠Anand &amp; Q Javed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ⁠Ravinder &amp; Rohit Mahapatra</t>
+  </si>
+  <si>
+    <t>Pankaj &amp; Akshay</t>
+  </si>
+  <si>
+    <t>Harpreet &amp; David Clerc</t>
+  </si>
+  <si>
+    <t>Kedar &amp; Ramana</t>
+  </si>
+  <si>
+    <t>Eric Salgado &amp; Aaron</t>
+  </si>
+  <si>
+    <t>Trent &amp; Diego Burgi</t>
+  </si>
+  <si>
+    <t>Ganesh &amp; Keith</t>
+  </si>
+  <si>
+    <t>Chavel &amp; Randy</t>
+  </si>
+  <si>
+    <t>Alok &amp; Arun</t>
+  </si>
+  <si>
+    <t>Madhu &amp; Rajesh</t>
+  </si>
+  <si>
+    <t>Prasanna &amp; Richard</t>
+  </si>
+  <si>
+    <t>David/Thomas</t>
+  </si>
+  <si>
+    <t>Adil / Aariz Syed</t>
+  </si>
+  <si>
+    <t>Anjum/Suhail</t>
+  </si>
+  <si>
+    <t>Srinivas Balusu/ Sriram Venkat</t>
+  </si>
+  <si>
+    <t>Raam/Satheesh</t>
+  </si>
+  <si>
+    <t>Lazer/Prasanna</t>
+  </si>
+  <si>
+    <t>Arul/Senthil Sainath</t>
+  </si>
+  <si>
+    <t>Raj/ Raj’s Son</t>
+  </si>
+  <si>
+    <t>Harshil/ Ayan</t>
+  </si>
+  <si>
+    <t>⁠Logan/ Darshan</t>
+  </si>
+  <si>
+    <t>⁠Gunjan/Mahesh</t>
+  </si>
+  <si>
+    <t>⁠Narayan/Karthik Ganesan</t>
+  </si>
+  <si>
+    <t>⁠Leslie/Senthil Kathirvel</t>
+  </si>
+  <si>
+    <t>Chengwei &amp; Hanson Jin</t>
+  </si>
+  <si>
+    <t>Juan &amp; Rohit</t>
+  </si>
+  <si>
+    <t>Anil &amp; Dale</t>
+  </si>
+  <si>
+    <t>Nihar &amp; Vastalya</t>
+  </si>
+  <si>
+    <t>Gunjan &amp; Pinku</t>
+  </si>
+  <si>
+    <t>Amit &amp; Chandra</t>
+  </si>
+  <si>
+    <t>Dave Kusko &amp; John Kusko</t>
+  </si>
+  <si>
+    <t>Sam &amp; Amol</t>
+  </si>
+  <si>
+    <t>Jesus &amp; Francisco Diaz</t>
+  </si>
+  <si>
+    <t>Surya &amp; Srikanth</t>
+  </si>
+  <si>
+    <t>Praveen &amp; Arvind</t>
+  </si>
+  <si>
+    <t>Sunil &amp; Sunny</t>
+  </si>
+  <si>
+    <t>⁠Anand &amp; Q Javed</t>
+  </si>
+  <si>
+    <t>⁠Ravinder &amp; Rohit Mahapatra</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -941,8 +1274,19 @@
       <name val="Segoe UI"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -955,8 +1299,16 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1001,11 +1353,48 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF3F3F3F"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1">
+      <alignment/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1024,9 +1413,14 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" applyAlignment="1" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="1" builtinId="23" name="Check Cell"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1305,7 +1699,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C15" sqref="C15:C28" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1772,8 +2166,9 @@
     </row>
     <row r="15">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1798,8 +2193,9 @@
     </row>
     <row r="16">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1824,8 +2220,9 @@
     </row>
     <row r="17">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1850,8 +2247,9 @@
     </row>
     <row r="18">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1876,8 +2274,9 @@
     </row>
     <row r="19">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1902,8 +2301,9 @@
     </row>
     <row r="20">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1928,8 +2328,9 @@
     </row>
     <row r="21">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1954,8 +2355,9 @@
     </row>
     <row r="22">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="2">
+        <v>8</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1980,8 +2382,9 @@
     </row>
     <row r="23">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2">
+        <v>9</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2006,8 +2409,9 @@
     </row>
     <row r="24">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2">
+        <v>10</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2032,8 +2436,9 @@
     </row>
     <row r="25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="2">
+        <v>11</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2058,8 +2463,9 @@
     </row>
     <row r="26">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="2">
+        <v>12</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2084,8 +2490,9 @@
     </row>
     <row r="27">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="2">
+        <v>13</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2110,8 +2517,9 @@
     </row>
     <row r="28">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="2">
+        <v>14</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -13380,14 +13788,17 @@
   </sheetPr>
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1" tabSelected="1">
-      <selection activeCell="S16" sqref="S16" activeCellId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="A2" sqref="A2:K38" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -13422,8 +13833,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>11</v>
+      <c r="A2" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -13457,8 +13868,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>26</v>
+      <c r="A3" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -13492,8 +13903,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>13</v>
+      <c r="A4" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -13527,8 +13938,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>28</v>
+      <c r="A5" s="11" t="s">
+        <v>304</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -13562,8 +13973,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>21</v>
+      <c r="A6" s="11" t="s">
+        <v>305</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -13597,8 +14008,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>27</v>
+      <c r="A7" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -13632,8 +14043,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
+      <c r="A8" s="11" t="s">
+        <v>307</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -13667,8 +14078,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>41</v>
+      <c r="A9" s="11" t="s">
+        <v>308</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -13702,8 +14113,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>265</v>
+      <c r="A10" s="11" t="s">
+        <v>309</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -13737,8 +14148,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>25</v>
+      <c r="A11" s="11" t="s">
+        <v>310</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -13756,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -13768,12 +14179,12 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>18</v>
+      <c r="A12" s="0" t="s">
+        <v>324</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -13791,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -13803,12 +14214,12 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>266</v>
+      <c r="A13" s="0" t="s">
+        <v>325</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -13826,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -13838,12 +14249,12 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>22</v>
+      <c r="A14" s="0" t="s">
+        <v>326</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -13861,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -13873,12 +14284,12 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>267</v>
+      <c r="A15" s="0" t="s">
+        <v>327</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -13896,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -13908,12 +14319,12 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>12</v>
+      <c r="A16" s="0" t="s">
+        <v>328</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -13931,7 +14342,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -13943,12 +14354,12 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>30</v>
+      <c r="A17" s="0" t="s">
+        <v>329</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -13966,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -13978,12 +14389,12 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>60</v>
+      <c r="A18" s="0" t="s">
+        <v>330</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -14001,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -14013,12 +14424,12 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>58</v>
+      <c r="A19" s="0" t="s">
+        <v>331</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -14048,12 +14459,12 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>108</v>
+      <c r="A20" s="0" t="s">
+        <v>332</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -14083,12 +14494,12 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>268</v>
+      <c r="A21" s="0" t="s">
+        <v>333</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -14118,12 +14529,12 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>72</v>
+      <c r="A22" s="0" t="s">
+        <v>334</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -14153,12 +14564,12 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>269</v>
+      <c r="A23" s="0" t="s">
+        <v>335</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -14188,12 +14599,12 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>14</v>
+      <c r="A24" s="0" t="s">
+        <v>336</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -14223,12 +14634,12 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>111</v>
+      <c r="A25" s="0" t="s">
+        <v>351</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -14262,8 +14673,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>40</v>
+      <c r="A26" s="0" t="s">
+        <v>352</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -14297,8 +14708,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>35</v>
+      <c r="A27" s="0" t="s">
+        <v>353</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -14332,8 +14743,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>57</v>
+      <c r="A28" s="0" t="s">
+        <v>354</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -14367,8 +14778,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>270</v>
+      <c r="A29" s="0" t="s">
+        <v>355</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -14402,8 +14813,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>55</v>
+      <c r="A30" s="0" t="s">
+        <v>356</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -14421,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -14437,8 +14848,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>271</v>
+      <c r="A31" s="0" t="s">
+        <v>357</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -14456,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -14472,8 +14883,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="A32" s="0" t="s">
+        <v>358</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -14491,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -14507,8 +14918,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>17</v>
+      <c r="A33" s="0" t="s">
+        <v>359</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -14526,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -14542,8 +14953,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>51</v>
+      <c r="A34" s="0" t="s">
+        <v>360</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -14561,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -14577,8 +14988,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="0" t="s">
+        <v>361</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -14596,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -14612,8 +15023,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>49</v>
+      <c r="A36" s="0" t="s">
+        <v>362</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -14631,7 +15042,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -14647,8 +15058,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>32</v>
+      <c r="A37" s="0" t="s">
+        <v>363</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -14666,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -14682,8 +15093,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>45</v>
+      <c r="A38" s="0" t="s">
+        <v>364</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -14701,7 +15112,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -14714,1861 +15125,6 @@
       </c>
       <c r="K38">
         <v>4.5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>272</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>273</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>274</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>3</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>3</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>3</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>3</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>275</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>3</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>276</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>277</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>279</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>280</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>2</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>2</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>281</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>2</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>2</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>282</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>2</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>283</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>2</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>3</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>3</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>3</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>284</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>3</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>285</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>3</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>3</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>3</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>286</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>3</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>3</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>287</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>3</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>4</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>288</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>4</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>4</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>4</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>4</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>289</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>4</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>76</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>4</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>67</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>4</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>68</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>4</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>290</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>4</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -16584,8 +15140,8 @@
   </sheetPr>
   <dimension ref="A1:D311"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U19" sqref="U19" activeCellId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1" tabSelected="1">
+      <selection activeCell="O17" sqref="O17" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16611,3871 +15167,2400 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="A29" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="A31" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="A32" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="A37" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" t="s">
-        <v>140</v>
+      <c r="A38" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" t="s">
-        <v>141</v>
+      <c r="A39" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" t="s">
-        <v>142</v>
+      <c r="A40" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" t="s">
-        <v>143</v>
+      <c r="A41" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" t="s">
-        <v>144</v>
+      <c r="A42" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" t="s">
-        <v>145</v>
+      <c r="A43" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" t="s">
-        <v>146</v>
+      <c r="A44" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" t="s">
-        <v>129</v>
+      <c r="A45" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" t="s">
-        <v>147</v>
+      <c r="A46" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>117</v>
+      <c r="A47" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" t="s">
-        <v>148</v>
+      <c r="A48" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" t="s">
-        <v>149</v>
+      <c r="A49" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" t="s">
-        <v>150</v>
+      <c r="A50" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" t="s">
-        <v>151</v>
+      <c r="A51" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" t="s">
-        <v>152</v>
+      <c r="A52" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" t="s">
-        <v>152</v>
+      <c r="A53" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" t="s">
-        <v>149</v>
+      <c r="A54" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" t="s">
-        <v>153</v>
+      <c r="A55" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" t="s">
-        <v>154</v>
+      <c r="A56" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" t="s">
-        <v>155</v>
+      <c r="A57" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" t="s">
-        <v>149</v>
+      <c r="A58" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" t="s">
-        <v>148</v>
+      <c r="A59" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" t="s">
-        <v>156</v>
+      <c r="A60" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" t="s">
-        <v>149</v>
+      <c r="A61" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" t="s">
-        <v>157</v>
+      <c r="A62" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" t="s">
-        <v>149</v>
+      <c r="A63" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+      <c r="A64" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" t="s">
-        <v>158</v>
+      <c r="A65" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s">
-        <v>32</v>
-      </c>
-      <c r="B66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" t="s">
-        <v>159</v>
+      <c r="A66" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="A67" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="A68" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" t="s">
-        <v>161</v>
+      <c r="A69" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" t="s">
-        <v>162</v>
+      <c r="A70" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" t="s">
-        <v>163</v>
+      <c r="A71" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s">
-        <v>32</v>
-      </c>
-      <c r="B72" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" t="s">
-        <v>164</v>
+      <c r="A72" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" t="s">
-        <v>153</v>
+      <c r="A73" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" t="s">
-        <v>135</v>
+      <c r="A74" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="A75" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" t="s">
-        <v>36</v>
-      </c>
-      <c r="C76" t="s">
-        <v>165</v>
+      <c r="A76" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" t="s">
-        <v>166</v>
+      <c r="A77" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" t="s">
-        <v>135</v>
+      <c r="A78" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" t="s">
-        <v>150</v>
+      <c r="A79" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" t="s">
-        <v>167</v>
+      <c r="A80" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" t="s">
-        <v>168</v>
+      <c r="A81" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="A82" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
+      <c r="A83" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s">
-        <v>34</v>
-      </c>
-      <c r="B84" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" t="s">
-        <v>148</v>
+      <c r="A84" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+      <c r="A85" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C86" t="s">
-        <v>171</v>
+      <c r="A86" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" t="s">
-        <v>172</v>
+      <c r="A87" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" t="s">
-        <v>41</v>
-      </c>
-      <c r="C88" t="s">
-        <v>169</v>
+      <c r="A88" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s">
-        <v>35</v>
-      </c>
-      <c r="B89" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89" t="s">
-        <v>173</v>
+      <c r="A89" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s">
-        <v>35</v>
-      </c>
-      <c r="B90" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="A90" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s">
-        <v>35</v>
-      </c>
-      <c r="B91" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91" t="s">
-        <v>132</v>
+      <c r="A91" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s">
-        <v>35</v>
-      </c>
-      <c r="B92" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" t="s">
-        <v>174</v>
+      <c r="A92" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" t="s">
-        <v>40</v>
-      </c>
-      <c r="C93" t="s">
-        <v>175</v>
+      <c r="A93" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s">
-        <v>35</v>
-      </c>
-      <c r="B94" t="s">
-        <v>41</v>
-      </c>
-      <c r="C94" t="s">
-        <v>127</v>
+      <c r="A94" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s">
-        <v>36</v>
-      </c>
-      <c r="B95" t="s">
-        <v>37</v>
-      </c>
-      <c r="C95" t="s">
-        <v>176</v>
+      <c r="A95" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" t="s">
-        <v>38</v>
-      </c>
-      <c r="C96" t="s">
-        <v>177</v>
+      <c r="A96" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s">
-        <v>36</v>
-      </c>
-      <c r="B97" t="s">
-        <v>39</v>
-      </c>
-      <c r="C97" t="s">
-        <v>178</v>
+      <c r="A97" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s">
-        <v>36</v>
-      </c>
-      <c r="B98" t="s">
-        <v>40</v>
-      </c>
-      <c r="C98" t="s">
-        <v>117</v>
+      <c r="A98" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s">
-        <v>36</v>
-      </c>
-      <c r="B99" t="s">
-        <v>41</v>
-      </c>
-      <c r="C99" t="s">
-        <v>179</v>
+      <c r="A99" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s">
-        <v>37</v>
-      </c>
-      <c r="B100" t="s">
-        <v>38</v>
-      </c>
-      <c r="C100" t="s">
-        <v>142</v>
+      <c r="A100" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s">
-        <v>37</v>
-      </c>
-      <c r="B101" t="s">
-        <v>39</v>
-      </c>
-      <c r="C101" t="s">
-        <v>180</v>
+      <c r="A101" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s">
-        <v>37</v>
-      </c>
-      <c r="B102" t="s">
-        <v>40</v>
-      </c>
-      <c r="C102" t="s">
-        <v>181</v>
+      <c r="A102" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s">
-        <v>37</v>
-      </c>
-      <c r="B103" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" t="s">
-        <v>176</v>
+      <c r="A103" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s">
-        <v>38</v>
-      </c>
-      <c r="B104" t="s">
-        <v>39</v>
-      </c>
-      <c r="C104" t="s">
-        <v>180</v>
+      <c r="A104" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s">
-        <v>38</v>
-      </c>
-      <c r="B105" t="s">
-        <v>40</v>
-      </c>
-      <c r="C105" t="s">
-        <v>182</v>
+      <c r="A105" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s">
-        <v>38</v>
-      </c>
-      <c r="B106" t="s">
-        <v>41</v>
-      </c>
-      <c r="C106" t="s">
-        <v>183</v>
+      <c r="A106" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s">
-        <v>39</v>
-      </c>
-      <c r="B107" t="s">
-        <v>40</v>
-      </c>
-      <c r="C107" t="s">
-        <v>184</v>
+      <c r="A107" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s">
-        <v>39</v>
-      </c>
-      <c r="B108" t="s">
-        <v>41</v>
-      </c>
-      <c r="C108" t="s">
-        <v>164</v>
+      <c r="A108" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s">
-        <v>40</v>
-      </c>
-      <c r="B109" t="s">
-        <v>41</v>
-      </c>
-      <c r="C109" t="s">
-        <v>185</v>
+      <c r="A109" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s">
-        <v>42</v>
-      </c>
-      <c r="B110" t="s">
-        <v>43</v>
-      </c>
-      <c r="C110" t="s">
-        <v>186</v>
+      <c r="A110" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s">
-        <v>42</v>
-      </c>
-      <c r="B111" t="s">
-        <v>44</v>
-      </c>
-      <c r="C111" t="s">
-        <v>150</v>
+      <c r="A111" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s">
-        <v>42</v>
-      </c>
-      <c r="B112" t="s">
-        <v>45</v>
-      </c>
-      <c r="C112" t="s">
-        <v>150</v>
+      <c r="A112" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s">
-        <v>42</v>
-      </c>
-      <c r="B113" t="s">
-        <v>46</v>
-      </c>
-      <c r="C113" t="s">
-        <v>124</v>
+      <c r="A113" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s">
-        <v>42</v>
-      </c>
-      <c r="B114" t="s">
-        <v>47</v>
-      </c>
-      <c r="C114" t="s">
-        <v>187</v>
+      <c r="A114" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s">
-        <v>42</v>
-      </c>
-      <c r="B115" t="s">
-        <v>48</v>
-      </c>
-      <c r="C115" t="s">
-        <v>164</v>
+      <c r="A115" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s">
-        <v>42</v>
-      </c>
-      <c r="B116" t="s">
-        <v>49</v>
-      </c>
-      <c r="C116" t="s">
-        <v>167</v>
+      <c r="A116" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s">
-        <v>42</v>
-      </c>
-      <c r="B117" t="s">
-        <v>50</v>
-      </c>
-      <c r="C117" t="s">
-        <v>126</v>
+      <c r="A117" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s">
-        <v>42</v>
-      </c>
-      <c r="B118" t="s">
-        <v>51</v>
-      </c>
-      <c r="C118" t="s">
-        <v>117</v>
+      <c r="A118" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s">
-        <v>43</v>
-      </c>
-      <c r="B119" t="s">
-        <v>44</v>
-      </c>
-      <c r="C119" t="s">
-        <v>180</v>
+      <c r="A119" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s">
-        <v>43</v>
-      </c>
-      <c r="B120" t="s">
-        <v>45</v>
-      </c>
-      <c r="C120" t="s">
-        <v>188</v>
+      <c r="A120" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s">
-        <v>43</v>
-      </c>
-      <c r="B121" t="s">
-        <v>46</v>
-      </c>
-      <c r="C121" t="s">
-        <v>189</v>
+      <c r="A121" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s">
-        <v>43</v>
-      </c>
-      <c r="B122" t="s">
-        <v>47</v>
-      </c>
-      <c r="C122" t="s">
-        <v>190</v>
+      <c r="A122" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s">
-        <v>43</v>
-      </c>
-      <c r="B123" t="s">
-        <v>48</v>
-      </c>
-      <c r="C123" t="s">
-        <v>191</v>
+      <c r="A123" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s">
-        <v>43</v>
-      </c>
-      <c r="B124" t="s">
-        <v>49</v>
-      </c>
-      <c r="C124" t="s">
-        <v>191</v>
+      <c r="A124" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s">
-        <v>43</v>
-      </c>
-      <c r="B125" t="s">
-        <v>50</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="A125" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s">
-        <v>43</v>
-      </c>
-      <c r="B126" t="s">
-        <v>51</v>
-      </c>
-      <c r="C126" t="s">
-        <v>192</v>
+      <c r="A126" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s">
-        <v>44</v>
-      </c>
-      <c r="B127" t="s">
-        <v>45</v>
-      </c>
-      <c r="C127" t="s">
-        <v>161</v>
+      <c r="A127" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s">
-        <v>44</v>
-      </c>
-      <c r="B128" t="s">
-        <v>46</v>
-      </c>
-      <c r="C128" t="s">
-        <v>193</v>
+      <c r="A128" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s">
-        <v>44</v>
-      </c>
-      <c r="B129" t="s">
-        <v>47</v>
-      </c>
-      <c r="C129" t="s">
-        <v>150</v>
+      <c r="A129" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s">
-        <v>44</v>
-      </c>
-      <c r="B130" t="s">
-        <v>48</v>
-      </c>
-      <c r="C130" t="s">
-        <v>194</v>
+      <c r="A130" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s">
-        <v>44</v>
-      </c>
-      <c r="B131" t="s">
-        <v>49</v>
-      </c>
-      <c r="C131" t="s">
-        <v>150</v>
+      <c r="A131" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s">
-        <v>44</v>
-      </c>
-      <c r="B132" t="s">
-        <v>50</v>
-      </c>
-      <c r="C132" t="s">
-        <v>118</v>
+      <c r="A132" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s">
-        <v>44</v>
-      </c>
-      <c r="B133" t="s">
-        <v>51</v>
-      </c>
-      <c r="C133" t="s">
-        <v>124</v>
+      <c r="A133" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s">
-        <v>45</v>
-      </c>
-      <c r="B134" t="s">
-        <v>46</v>
-      </c>
-      <c r="C134" t="s">
-        <v>195</v>
+      <c r="A134" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s">
-        <v>45</v>
-      </c>
-      <c r="B135" t="s">
-        <v>47</v>
-      </c>
-      <c r="C135" t="s">
-        <v>196</v>
+      <c r="A135" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s">
-        <v>45</v>
-      </c>
-      <c r="B136" t="s">
-        <v>48</v>
-      </c>
-      <c r="C136" t="s">
-        <v>197</v>
+      <c r="A136" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s">
-        <v>45</v>
-      </c>
-      <c r="B137" t="s">
-        <v>49</v>
-      </c>
-      <c r="C137" t="s">
-        <v>198</v>
+      <c r="A137" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s">
-        <v>45</v>
-      </c>
-      <c r="B138" t="s">
-        <v>50</v>
-      </c>
-      <c r="C138" t="s">
-        <v>148</v>
+      <c r="A138" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s">
-        <v>45</v>
-      </c>
-      <c r="B139" t="s">
-        <v>51</v>
-      </c>
-      <c r="C139" t="s">
-        <v>199</v>
+      <c r="A139" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s">
-        <v>46</v>
-      </c>
-      <c r="B140" t="s">
-        <v>47</v>
-      </c>
-      <c r="C140" t="s">
-        <v>158</v>
+      <c r="A140" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s">
-        <v>46</v>
-      </c>
-      <c r="B141" t="s">
-        <v>48</v>
-      </c>
-      <c r="C141" t="s">
-        <v>165</v>
+      <c r="A141" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s">
-        <v>46</v>
-      </c>
-      <c r="B142" t="s">
-        <v>49</v>
-      </c>
-      <c r="C142" t="s">
-        <v>153</v>
+      <c r="A142" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s">
-        <v>46</v>
-      </c>
-      <c r="B143" t="s">
-        <v>50</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="A143" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C143" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s">
-        <v>46</v>
-      </c>
-      <c r="B144" t="s">
-        <v>51</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="A144" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C144" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s">
-        <v>47</v>
-      </c>
-      <c r="B145" t="s">
-        <v>48</v>
-      </c>
-      <c r="C145" t="s">
-        <v>183</v>
+      <c r="A145" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s">
-        <v>47</v>
-      </c>
-      <c r="B146" t="s">
-        <v>49</v>
-      </c>
-      <c r="C146" t="s">
-        <v>200</v>
+      <c r="A146" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s">
-        <v>47</v>
-      </c>
-      <c r="B147" t="s">
-        <v>50</v>
-      </c>
-      <c r="C147" t="s">
-        <v>201</v>
+      <c r="A147" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s">
-        <v>47</v>
-      </c>
-      <c r="B148" t="s">
-        <v>51</v>
-      </c>
-      <c r="C148" t="s">
-        <v>150</v>
+      <c r="A148" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s">
-        <v>48</v>
-      </c>
-      <c r="B149" t="s">
-        <v>49</v>
-      </c>
-      <c r="C149" t="s">
-        <v>130</v>
+      <c r="A149" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s">
-        <v>48</v>
-      </c>
-      <c r="B150" t="s">
-        <v>50</v>
-      </c>
-      <c r="C150" t="s">
-        <v>202</v>
+      <c r="A150" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s">
-        <v>48</v>
-      </c>
-      <c r="B151" t="s">
-        <v>51</v>
-      </c>
-      <c r="C151" t="s">
-        <v>203</v>
+      <c r="A151" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s">
-        <v>49</v>
-      </c>
-      <c r="B152" t="s">
-        <v>50</v>
-      </c>
-      <c r="C152" t="s">
-        <v>204</v>
+      <c r="A152" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s">
-        <v>49</v>
-      </c>
-      <c r="B153" t="s">
-        <v>51</v>
-      </c>
-      <c r="C153" t="s">
-        <v>135</v>
+      <c r="A153" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s">
-        <v>50</v>
-      </c>
-      <c r="B154" t="s">
-        <v>51</v>
-      </c>
-      <c r="C154" t="s">
-        <v>198</v>
+      <c r="A154" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s">
-        <v>52</v>
-      </c>
-      <c r="B155" t="s">
-        <v>53</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="A155" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C155" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s">
-        <v>52</v>
-      </c>
-      <c r="B156" t="s">
-        <v>54</v>
-      </c>
-      <c r="C156" t="s">
-        <v>160</v>
-      </c>
-      <c r="D156" t="s">
-        <v>205</v>
+      <c r="A156" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s">
-        <v>52</v>
-      </c>
-      <c r="B157" t="s">
-        <v>55</v>
-      </c>
-      <c r="C157" t="s">
-        <v>206</v>
-      </c>
-      <c r="D157" t="s">
-        <v>205</v>
+      <c r="A157" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s">
-        <v>52</v>
-      </c>
-      <c r="B158" t="s">
-        <v>56</v>
-      </c>
-      <c r="C158" t="s">
-        <v>170</v>
-      </c>
-      <c r="D158" t="s">
-        <v>205</v>
+      <c r="A158" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s">
-        <v>52</v>
-      </c>
-      <c r="B159" t="s">
-        <v>57</v>
-      </c>
-      <c r="C159" t="s">
-        <v>160</v>
-      </c>
-      <c r="D159" t="s">
-        <v>205</v>
+      <c r="A159" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s">
-        <v>52</v>
-      </c>
-      <c r="B160" t="s">
-        <v>58</v>
-      </c>
-      <c r="C160" t="s">
-        <v>160</v>
-      </c>
-      <c r="D160" t="s">
-        <v>205</v>
+      <c r="A160" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s">
-        <v>52</v>
-      </c>
-      <c r="B161" t="s">
-        <v>59</v>
-      </c>
-      <c r="C161" t="s">
-        <v>204</v>
-      </c>
-      <c r="D161" t="s">
-        <v>205</v>
+      <c r="A161" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s">
-        <v>52</v>
-      </c>
-      <c r="B162" t="s">
-        <v>60</v>
-      </c>
-      <c r="C162" t="s">
-        <v>207</v>
-      </c>
-      <c r="D162" t="s">
-        <v>205</v>
+      <c r="A162" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s">
-        <v>52</v>
-      </c>
-      <c r="B163" t="s">
-        <v>61</v>
-      </c>
-      <c r="C163" t="s">
-        <v>208</v>
-      </c>
-      <c r="D163" t="s">
-        <v>205</v>
+      <c r="A163" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s">
-        <v>53</v>
-      </c>
-      <c r="B164" t="s">
-        <v>54</v>
-      </c>
-      <c r="C164" t="s">
-        <v>209</v>
-      </c>
-      <c r="D164" t="s">
-        <v>205</v>
+      <c r="A164" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s">
-        <v>53</v>
-      </c>
-      <c r="B165" t="s">
-        <v>55</v>
-      </c>
-      <c r="C165" t="s">
-        <v>210</v>
-      </c>
-      <c r="D165" t="s">
-        <v>205</v>
+      <c r="A165" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s">
-        <v>53</v>
-      </c>
-      <c r="B166" t="s">
-        <v>56</v>
-      </c>
-      <c r="C166" t="s">
-        <v>211</v>
-      </c>
-      <c r="D166" t="s">
-        <v>205</v>
+      <c r="A166" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s">
-        <v>53</v>
-      </c>
-      <c r="B167" t="s">
-        <v>57</v>
-      </c>
-      <c r="C167" t="s">
-        <v>212</v>
-      </c>
-      <c r="D167" t="s">
-        <v>205</v>
+      <c r="A167" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s">
-        <v>53</v>
-      </c>
-      <c r="B168" t="s">
-        <v>58</v>
-      </c>
-      <c r="C168" t="s">
-        <v>213</v>
-      </c>
-      <c r="D168" t="s">
-        <v>205</v>
+      <c r="A168" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s">
-        <v>53</v>
-      </c>
-      <c r="B169" t="s">
-        <v>59</v>
-      </c>
-      <c r="C169" t="s">
-        <v>214</v>
-      </c>
-      <c r="D169" t="s">
-        <v>205</v>
+      <c r="A169" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s">
-        <v>53</v>
-      </c>
-      <c r="B170" t="s">
-        <v>60</v>
-      </c>
-      <c r="C170" t="s">
-        <v>213</v>
-      </c>
-      <c r="D170" t="s">
-        <v>215</v>
+      <c r="A170" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s">
-        <v>53</v>
-      </c>
-      <c r="B171" t="s">
-        <v>61</v>
-      </c>
-      <c r="C171" t="s">
-        <v>216</v>
-      </c>
-      <c r="D171" t="s">
-        <v>215</v>
+      <c r="A171" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s">
-        <v>54</v>
-      </c>
-      <c r="B172" t="s">
-        <v>55</v>
-      </c>
-      <c r="C172" t="s">
-        <v>209</v>
-      </c>
-      <c r="D172" t="s">
-        <v>215</v>
+      <c r="A172" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s">
-        <v>54</v>
-      </c>
-      <c r="B173" t="s">
-        <v>56</v>
-      </c>
-      <c r="C173" t="s">
-        <v>209</v>
-      </c>
-      <c r="D173" t="s">
-        <v>215</v>
+      <c r="A173" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s">
-        <v>54</v>
-      </c>
-      <c r="B174" t="s">
-        <v>57</v>
-      </c>
-      <c r="C174" t="s">
-        <v>160</v>
-      </c>
-      <c r="D174" t="s">
-        <v>215</v>
+      <c r="A174" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s">
-        <v>54</v>
-      </c>
-      <c r="B175" t="s">
-        <v>58</v>
-      </c>
-      <c r="C175" t="s">
-        <v>160</v>
-      </c>
-      <c r="D175" t="s">
-        <v>215</v>
+      <c r="A175" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s">
-        <v>54</v>
-      </c>
-      <c r="B176" t="s">
-        <v>59</v>
-      </c>
-      <c r="C176" t="s">
-        <v>160</v>
-      </c>
-      <c r="D176" t="s">
-        <v>215</v>
+      <c r="A176" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s">
-        <v>54</v>
-      </c>
-      <c r="B177" t="s">
-        <v>60</v>
-      </c>
-      <c r="C177" t="s">
-        <v>209</v>
-      </c>
-      <c r="D177" t="s">
-        <v>215</v>
+      <c r="A177" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s">
-        <v>54</v>
-      </c>
-      <c r="B178" t="s">
-        <v>61</v>
-      </c>
-      <c r="C178" t="s">
-        <v>208</v>
-      </c>
-      <c r="D178" t="s">
-        <v>215</v>
+      <c r="A178" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s">
-        <v>55</v>
-      </c>
-      <c r="B179" t="s">
-        <v>56</v>
-      </c>
-      <c r="C179" t="s">
-        <v>217</v>
-      </c>
-      <c r="D179" t="s">
-        <v>215</v>
+      <c r="A179" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s">
-        <v>55</v>
-      </c>
-      <c r="B180" t="s">
-        <v>57</v>
-      </c>
-      <c r="C180" t="s">
-        <v>198</v>
-      </c>
-      <c r="D180" t="s">
-        <v>215</v>
+      <c r="A180" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s">
-        <v>55</v>
-      </c>
-      <c r="B181" t="s">
-        <v>58</v>
-      </c>
-      <c r="C181" t="s">
-        <v>218</v>
-      </c>
-      <c r="D181" t="s">
-        <v>215</v>
+      <c r="A181" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s">
-        <v>55</v>
-      </c>
-      <c r="B182" t="s">
-        <v>59</v>
-      </c>
-      <c r="C182" t="s">
-        <v>219</v>
-      </c>
-      <c r="D182" t="s">
-        <v>215</v>
+      <c r="A182" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s">
-        <v>55</v>
-      </c>
-      <c r="B183" t="s">
-        <v>60</v>
-      </c>
-      <c r="C183" t="s">
-        <v>157</v>
-      </c>
-      <c r="D183" t="s">
-        <v>215</v>
+      <c r="A183" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s">
-        <v>55</v>
-      </c>
-      <c r="B184" t="s">
-        <v>61</v>
-      </c>
-      <c r="C184" t="s">
-        <v>220</v>
-      </c>
-      <c r="D184" t="s">
-        <v>215</v>
+      <c r="A184" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s">
-        <v>56</v>
-      </c>
-      <c r="B185" t="s">
-        <v>57</v>
-      </c>
-      <c r="C185" t="s">
-        <v>221</v>
-      </c>
-      <c r="D185" t="s">
-        <v>215</v>
+      <c r="A185" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s">
-        <v>56</v>
-      </c>
-      <c r="B186" t="s">
-        <v>58</v>
-      </c>
-      <c r="C186" t="s">
-        <v>173</v>
-      </c>
-      <c r="D186" t="s">
-        <v>215</v>
+      <c r="A186" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s">
-        <v>56</v>
-      </c>
-      <c r="B187" t="s">
-        <v>59</v>
-      </c>
-      <c r="C187" t="s">
-        <v>150</v>
-      </c>
-      <c r="D187" t="s">
-        <v>215</v>
+      <c r="A187" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s">
-        <v>56</v>
-      </c>
-      <c r="B188" t="s">
-        <v>60</v>
-      </c>
-      <c r="C188" t="s">
-        <v>173</v>
-      </c>
-      <c r="D188" t="s">
-        <v>215</v>
+      <c r="A188" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s">
-        <v>56</v>
-      </c>
-      <c r="B189" t="s">
-        <v>61</v>
-      </c>
-      <c r="C189" t="s">
-        <v>208</v>
-      </c>
-      <c r="D189" t="s">
-        <v>215</v>
+      <c r="A189" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s">
-        <v>57</v>
-      </c>
-      <c r="B190" t="s">
-        <v>58</v>
-      </c>
-      <c r="C190" t="s">
-        <v>218</v>
-      </c>
-      <c r="D190" t="s">
-        <v>215</v>
+      <c r="A190" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s">
-        <v>57</v>
-      </c>
-      <c r="B191" t="s">
-        <v>59</v>
-      </c>
-      <c r="C191" t="s">
-        <v>222</v>
-      </c>
-      <c r="D191" t="s">
-        <v>215</v>
+      <c r="A191" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s">
-        <v>57</v>
-      </c>
-      <c r="B192" t="s">
-        <v>60</v>
-      </c>
-      <c r="C192" t="s">
-        <v>200</v>
-      </c>
-      <c r="D192" t="s">
-        <v>215</v>
+      <c r="A192" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s">
-        <v>57</v>
-      </c>
-      <c r="B193" t="s">
-        <v>61</v>
-      </c>
-      <c r="C193" t="s">
-        <v>223</v>
-      </c>
-      <c r="D193" t="s">
-        <v>215</v>
+      <c r="A193" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s">
-        <v>58</v>
-      </c>
-      <c r="B194" t="s">
-        <v>59</v>
-      </c>
-      <c r="C194" t="s">
-        <v>218</v>
-      </c>
-      <c r="D194" t="s">
-        <v>215</v>
+      <c r="A194" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s">
-        <v>58</v>
-      </c>
-      <c r="B195" t="s">
-        <v>60</v>
-      </c>
-      <c r="C195" t="s">
-        <v>218</v>
-      </c>
-      <c r="D195" t="s">
-        <v>215</v>
+      <c r="A195" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s">
-        <v>58</v>
-      </c>
-      <c r="B196" t="s">
-        <v>61</v>
-      </c>
-      <c r="C196" t="s">
-        <v>218</v>
-      </c>
-      <c r="D196" t="s">
-        <v>215</v>
+      <c r="A196" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s">
-        <v>59</v>
-      </c>
-      <c r="B197" t="s">
-        <v>60</v>
-      </c>
-      <c r="C197" t="s">
-        <v>182</v>
-      </c>
-      <c r="D197" t="s">
-        <v>215</v>
+      <c r="A197" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s">
-        <v>59</v>
-      </c>
-      <c r="B198" t="s">
-        <v>61</v>
-      </c>
-      <c r="C198" t="s">
-        <v>224</v>
-      </c>
-      <c r="D198" t="s">
-        <v>215</v>
+      <c r="A198" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s">
-        <v>60</v>
-      </c>
-      <c r="B199" t="s">
-        <v>61</v>
-      </c>
-      <c r="C199" t="s">
-        <v>198</v>
-      </c>
-      <c r="D199" t="s">
-        <v>215</v>
+      <c r="A199" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s">
-        <v>62</v>
-      </c>
-      <c r="B200" t="s">
-        <v>63</v>
-      </c>
-      <c r="C200" t="s">
-        <v>153</v>
-      </c>
-      <c r="D200" t="s">
-        <v>215</v>
+      <c r="A200" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s">
-        <v>62</v>
-      </c>
-      <c r="B201" t="s">
-        <v>64</v>
-      </c>
-      <c r="C201" t="s">
-        <v>225</v>
-      </c>
-      <c r="D201" t="s">
-        <v>215</v>
+      <c r="A201" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s">
-        <v>62</v>
-      </c>
-      <c r="B202" t="s">
-        <v>65</v>
-      </c>
-      <c r="C202" t="s">
-        <v>181</v>
-      </c>
-      <c r="D202" t="s">
-        <v>215</v>
+      <c r="A202" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s">
-        <v>62</v>
-      </c>
-      <c r="B203" t="s">
-        <v>66</v>
-      </c>
-      <c r="C203" t="s">
-        <v>183</v>
-      </c>
-      <c r="D203" t="s">
-        <v>215</v>
+      <c r="A203" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s">
-        <v>62</v>
-      </c>
-      <c r="B204" t="s">
-        <v>67</v>
-      </c>
-      <c r="C204" t="s">
-        <v>226</v>
-      </c>
-      <c r="D204" t="s">
-        <v>215</v>
+      <c r="A204" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s">
-        <v>62</v>
-      </c>
-      <c r="B205" t="s">
-        <v>68</v>
-      </c>
-      <c r="C205" t="s">
-        <v>227</v>
-      </c>
-      <c r="D205" t="s">
-        <v>215</v>
+      <c r="A205" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s">
-        <v>62</v>
-      </c>
-      <c r="B206" t="s">
-        <v>69</v>
-      </c>
-      <c r="C206" t="s">
-        <v>228</v>
-      </c>
-      <c r="D206" t="s">
-        <v>215</v>
+      <c r="A206" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s">
-        <v>63</v>
-      </c>
-      <c r="B207" t="s">
-        <v>64</v>
-      </c>
-      <c r="C207" t="s">
-        <v>229</v>
-      </c>
-      <c r="D207" t="s">
-        <v>215</v>
+      <c r="A207" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s">
-        <v>63</v>
-      </c>
-      <c r="B208" t="s">
-        <v>65</v>
-      </c>
-      <c r="C208" t="s">
-        <v>203</v>
-      </c>
-      <c r="D208" t="s">
-        <v>215</v>
+      <c r="A208" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s">
-        <v>63</v>
-      </c>
-      <c r="B209" t="s">
-        <v>66</v>
-      </c>
-      <c r="C209" t="s">
-        <v>187</v>
-      </c>
-      <c r="D209" t="s">
-        <v>215</v>
+      <c r="A209" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s">
-        <v>63</v>
-      </c>
-      <c r="B210" t="s">
-        <v>67</v>
-      </c>
-      <c r="C210" t="s">
-        <v>230</v>
-      </c>
-      <c r="D210" t="s">
-        <v>215</v>
+      <c r="A210" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s">
-        <v>63</v>
-      </c>
-      <c r="B211" t="s">
-        <v>68</v>
-      </c>
-      <c r="C211" t="s">
-        <v>231</v>
-      </c>
-      <c r="D211" t="s">
-        <v>215</v>
+      <c r="A211" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s">
-        <v>63</v>
-      </c>
-      <c r="B212" t="s">
-        <v>69</v>
-      </c>
-      <c r="C212" t="s">
-        <v>141</v>
-      </c>
-      <c r="D212" t="s">
-        <v>215</v>
+      <c r="A212" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s">
-        <v>64</v>
-      </c>
-      <c r="B213" t="s">
-        <v>65</v>
-      </c>
-      <c r="C213" t="s">
-        <v>182</v>
-      </c>
-      <c r="D213" t="s">
-        <v>215</v>
+      <c r="A213" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s">
-        <v>64</v>
-      </c>
-      <c r="B214" t="s">
-        <v>66</v>
-      </c>
-      <c r="C214" t="s">
-        <v>232</v>
-      </c>
-      <c r="D214" t="s">
-        <v>215</v>
+      <c r="A214" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s">
-        <v>64</v>
-      </c>
-      <c r="B215" t="s">
-        <v>67</v>
-      </c>
-      <c r="C215" t="s">
-        <v>233</v>
-      </c>
-      <c r="D215" t="s">
-        <v>215</v>
+      <c r="A215" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s">
-        <v>64</v>
-      </c>
-      <c r="B216" t="s">
-        <v>68</v>
-      </c>
-      <c r="C216" t="s">
-        <v>234</v>
-      </c>
-      <c r="D216" t="s">
-        <v>215</v>
+      <c r="A216" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s">
-        <v>64</v>
-      </c>
-      <c r="B217" t="s">
-        <v>69</v>
-      </c>
-      <c r="C217" t="s">
-        <v>228</v>
-      </c>
-      <c r="D217" t="s">
-        <v>215</v>
+      <c r="A217" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s">
-        <v>65</v>
-      </c>
-      <c r="B218" t="s">
-        <v>66</v>
-      </c>
-      <c r="C218" t="s">
-        <v>235</v>
-      </c>
-      <c r="D218" t="s">
-        <v>215</v>
+      <c r="A218" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s">
-        <v>65</v>
-      </c>
-      <c r="B219" t="s">
-        <v>67</v>
-      </c>
-      <c r="C219" t="s">
-        <v>235</v>
-      </c>
-      <c r="D219" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>65</v>
-      </c>
-      <c r="B220" t="s">
-        <v>68</v>
-      </c>
-      <c r="C220" t="s">
-        <v>134</v>
-      </c>
-      <c r="D220" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>65</v>
-      </c>
-      <c r="B221" t="s">
-        <v>69</v>
-      </c>
-      <c r="C221" t="s">
-        <v>235</v>
-      </c>
-      <c r="D221" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>66</v>
-      </c>
-      <c r="B222" t="s">
-        <v>67</v>
-      </c>
-      <c r="C222" t="s">
-        <v>204</v>
-      </c>
-      <c r="D222" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>66</v>
-      </c>
-      <c r="B223" t="s">
-        <v>68</v>
-      </c>
-      <c r="C223" t="s">
-        <v>147</v>
-      </c>
-      <c r="D223" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>66</v>
-      </c>
-      <c r="B224" t="s">
-        <v>69</v>
-      </c>
-      <c r="C224" t="s">
-        <v>236</v>
-      </c>
-      <c r="D224" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>67</v>
-      </c>
-      <c r="B225" t="s">
-        <v>68</v>
-      </c>
-      <c r="C225" t="s">
-        <v>226</v>
-      </c>
-      <c r="D225" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>67</v>
-      </c>
-      <c r="B226" t="s">
-        <v>69</v>
-      </c>
-      <c r="C226" t="s">
-        <v>237</v>
-      </c>
-      <c r="D226" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>68</v>
-      </c>
-      <c r="B227" t="s">
-        <v>69</v>
-      </c>
-      <c r="C227" t="s">
-        <v>238</v>
-      </c>
-      <c r="D227" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>70</v>
-      </c>
-      <c r="B228" t="s">
-        <v>71</v>
-      </c>
-      <c r="C228" t="s">
-        <v>239</v>
-      </c>
-      <c r="D228" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>70</v>
-      </c>
-      <c r="B229" t="s">
-        <v>72</v>
-      </c>
-      <c r="C229" t="s">
-        <v>160</v>
-      </c>
-      <c r="D229" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>70</v>
-      </c>
-      <c r="B230" t="s">
-        <v>73</v>
-      </c>
-      <c r="C230" t="s">
-        <v>150</v>
-      </c>
-      <c r="D230" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>70</v>
-      </c>
-      <c r="B231" t="s">
-        <v>74</v>
-      </c>
-      <c r="C231" t="s">
-        <v>240</v>
-      </c>
-      <c r="D231" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>70</v>
-      </c>
-      <c r="B232" t="s">
-        <v>75</v>
-      </c>
-      <c r="C232" t="s">
-        <v>241</v>
-      </c>
-      <c r="D232" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>70</v>
-      </c>
-      <c r="B233" t="s">
-        <v>76</v>
-      </c>
-      <c r="C233" t="s">
-        <v>124</v>
-      </c>
-      <c r="D233" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>70</v>
-      </c>
-      <c r="B234" t="s">
-        <v>77</v>
-      </c>
-      <c r="C234" t="s">
-        <v>242</v>
-      </c>
-      <c r="D234" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>71</v>
-      </c>
-      <c r="B235" t="s">
-        <v>72</v>
-      </c>
-      <c r="C235" t="s">
-        <v>243</v>
-      </c>
-      <c r="D235" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>71</v>
-      </c>
-      <c r="B236" t="s">
-        <v>73</v>
-      </c>
-      <c r="C236" t="s">
-        <v>135</v>
-      </c>
-      <c r="D236" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>71</v>
-      </c>
-      <c r="B237" t="s">
-        <v>74</v>
-      </c>
-      <c r="C237" t="s">
-        <v>244</v>
-      </c>
-      <c r="D237" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>71</v>
-      </c>
-      <c r="B238" t="s">
-        <v>75</v>
-      </c>
-      <c r="C238" t="s">
-        <v>187</v>
-      </c>
-      <c r="D238" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>71</v>
-      </c>
-      <c r="B239" t="s">
-        <v>76</v>
-      </c>
-      <c r="C239" t="s">
-        <v>204</v>
-      </c>
-      <c r="D239" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>71</v>
-      </c>
-      <c r="B240" t="s">
-        <v>77</v>
-      </c>
-      <c r="C240" t="s">
-        <v>245</v>
-      </c>
-      <c r="D240" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>72</v>
-      </c>
-      <c r="B241" t="s">
-        <v>73</v>
-      </c>
-      <c r="C241" t="s">
-        <v>160</v>
-      </c>
-      <c r="D241" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>72</v>
-      </c>
-      <c r="B242" t="s">
-        <v>74</v>
-      </c>
-      <c r="C242" t="s">
-        <v>211</v>
-      </c>
-      <c r="D242" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>72</v>
-      </c>
-      <c r="B243" t="s">
-        <v>75</v>
-      </c>
-      <c r="C243" t="s">
-        <v>141</v>
-      </c>
-      <c r="D243" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>72</v>
-      </c>
-      <c r="B244" t="s">
-        <v>76</v>
-      </c>
-      <c r="C244" t="s">
-        <v>126</v>
-      </c>
-      <c r="D244" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>72</v>
-      </c>
-      <c r="B245" t="s">
-        <v>77</v>
-      </c>
-      <c r="C245" t="s">
-        <v>187</v>
-      </c>
-      <c r="D245" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>73</v>
-      </c>
-      <c r="B246" t="s">
-        <v>74</v>
-      </c>
-      <c r="C246" t="s">
-        <v>136</v>
-      </c>
-      <c r="D246" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>73</v>
-      </c>
-      <c r="B247" t="s">
-        <v>75</v>
-      </c>
-      <c r="C247" t="s">
-        <v>190</v>
-      </c>
-      <c r="D247" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>73</v>
-      </c>
-      <c r="B248" t="s">
-        <v>76</v>
-      </c>
-      <c r="C248" t="s">
-        <v>150</v>
-      </c>
-      <c r="D248" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>73</v>
-      </c>
-      <c r="B249" t="s">
-        <v>77</v>
-      </c>
-      <c r="C249" t="s">
-        <v>197</v>
-      </c>
-      <c r="D249" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>74</v>
-      </c>
-      <c r="B250" t="s">
-        <v>75</v>
-      </c>
-      <c r="C250" t="s">
-        <v>211</v>
-      </c>
-      <c r="D250" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>74</v>
-      </c>
-      <c r="B251" t="s">
-        <v>76</v>
-      </c>
-      <c r="C251" t="s">
-        <v>121</v>
-      </c>
-      <c r="D251" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>74</v>
-      </c>
-      <c r="B252" t="s">
-        <v>77</v>
-      </c>
-      <c r="C252" t="s">
-        <v>246</v>
-      </c>
-      <c r="D252" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>75</v>
-      </c>
-      <c r="B253" t="s">
-        <v>76</v>
-      </c>
-      <c r="C253" t="s">
-        <v>121</v>
-      </c>
-      <c r="D253" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>75</v>
-      </c>
-      <c r="B254" t="s">
-        <v>77</v>
-      </c>
-      <c r="C254" t="s">
-        <v>157</v>
-      </c>
-      <c r="D254" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>76</v>
-      </c>
-      <c r="B255" t="s">
-        <v>77</v>
-      </c>
-      <c r="C255" t="s">
-        <v>181</v>
-      </c>
-      <c r="D255" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>78</v>
-      </c>
-      <c r="B256" t="s">
-        <v>79</v>
-      </c>
-      <c r="C256" t="s">
-        <v>247</v>
-      </c>
-      <c r="D256" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>78</v>
-      </c>
-      <c r="B257" t="s">
-        <v>80</v>
-      </c>
-      <c r="C257" t="s">
-        <v>191</v>
-      </c>
-      <c r="D257" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>78</v>
-      </c>
-      <c r="B258" t="s">
-        <v>81</v>
-      </c>
-      <c r="C258" t="s">
-        <v>227</v>
-      </c>
-      <c r="D258" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s">
-        <v>78</v>
-      </c>
-      <c r="B259" t="s">
-        <v>82</v>
-      </c>
-      <c r="C259" t="s">
-        <v>249</v>
-      </c>
-      <c r="D259" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s">
-        <v>78</v>
-      </c>
-      <c r="B260" t="s">
-        <v>83</v>
-      </c>
-      <c r="C260" t="s">
-        <v>206</v>
-      </c>
-      <c r="D260" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s">
-        <v>78</v>
-      </c>
-      <c r="B261" t="s">
-        <v>84</v>
-      </c>
-      <c r="C261" t="s">
-        <v>136</v>
-      </c>
-      <c r="D261" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>78</v>
-      </c>
-      <c r="B262" t="s">
-        <v>85</v>
-      </c>
-      <c r="C262" t="s">
-        <v>121</v>
-      </c>
-      <c r="D262" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>79</v>
-      </c>
-      <c r="B263" t="s">
-        <v>80</v>
-      </c>
-      <c r="C263" t="s">
-        <v>142</v>
-      </c>
-      <c r="D263" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s">
-        <v>79</v>
-      </c>
-      <c r="B264" t="s">
-        <v>81</v>
-      </c>
-      <c r="C264" t="s">
-        <v>182</v>
-      </c>
-      <c r="D264" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s">
-        <v>79</v>
-      </c>
-      <c r="B265" t="s">
-        <v>82</v>
-      </c>
-      <c r="C265" t="s">
-        <v>160</v>
-      </c>
-      <c r="D265" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s">
-        <v>79</v>
-      </c>
-      <c r="B266" t="s">
-        <v>83</v>
-      </c>
-      <c r="C266" t="s">
-        <v>134</v>
-      </c>
-      <c r="D266" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s">
-        <v>79</v>
-      </c>
-      <c r="B267" t="s">
-        <v>84</v>
-      </c>
-      <c r="C267" t="s">
-        <v>165</v>
-      </c>
-      <c r="D267" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s">
-        <v>79</v>
-      </c>
-      <c r="B268" t="s">
-        <v>85</v>
-      </c>
-      <c r="C268" t="s">
-        <v>117</v>
-      </c>
-      <c r="D268" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s">
-        <v>80</v>
-      </c>
-      <c r="B269" t="s">
-        <v>81</v>
-      </c>
-      <c r="C269" t="s">
-        <v>251</v>
-      </c>
-      <c r="D269" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s">
-        <v>80</v>
-      </c>
-      <c r="B270" t="s">
-        <v>82</v>
-      </c>
-      <c r="C270" t="s">
-        <v>177</v>
-      </c>
-      <c r="D270" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s">
-        <v>80</v>
-      </c>
-      <c r="B271" t="s">
-        <v>83</v>
-      </c>
-      <c r="C271" t="s">
-        <v>230</v>
-      </c>
-      <c r="D271" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s">
-        <v>80</v>
-      </c>
-      <c r="B272" t="s">
-        <v>84</v>
-      </c>
-      <c r="C272" t="s">
-        <v>252</v>
-      </c>
-      <c r="D272" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s">
-        <v>80</v>
-      </c>
-      <c r="B273" t="s">
-        <v>85</v>
-      </c>
-      <c r="C273" t="s">
-        <v>121</v>
-      </c>
-      <c r="D273" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s">
-        <v>81</v>
-      </c>
-      <c r="B274" t="s">
-        <v>82</v>
-      </c>
-      <c r="C274" t="s">
-        <v>141</v>
-      </c>
-      <c r="D274" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s">
-        <v>81</v>
-      </c>
-      <c r="B275" t="s">
-        <v>83</v>
-      </c>
-      <c r="C275" t="s">
-        <v>160</v>
-      </c>
-      <c r="D275" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s">
-        <v>81</v>
-      </c>
-      <c r="B276" t="s">
-        <v>84</v>
-      </c>
-      <c r="C276" t="s">
-        <v>160</v>
-      </c>
-      <c r="D276" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s">
-        <v>81</v>
-      </c>
-      <c r="B277" t="s">
-        <v>85</v>
-      </c>
-      <c r="C277" t="s">
-        <v>126</v>
-      </c>
-      <c r="D277" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s">
-        <v>82</v>
-      </c>
-      <c r="B278" t="s">
-        <v>83</v>
-      </c>
-      <c r="C278" t="s">
-        <v>160</v>
-      </c>
-      <c r="D278" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s">
-        <v>82</v>
-      </c>
-      <c r="B279" t="s">
-        <v>84</v>
-      </c>
-      <c r="C279" t="s">
-        <v>160</v>
-      </c>
-      <c r="D279" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s">
-        <v>82</v>
-      </c>
-      <c r="B280" t="s">
-        <v>85</v>
-      </c>
-      <c r="C280" t="s">
-        <v>249</v>
-      </c>
-      <c r="D280" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s">
-        <v>83</v>
-      </c>
-      <c r="B281" t="s">
-        <v>84</v>
-      </c>
-      <c r="C281" t="s">
-        <v>160</v>
-      </c>
-      <c r="D281" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s">
-        <v>83</v>
-      </c>
-      <c r="B282" t="s">
-        <v>85</v>
-      </c>
-      <c r="C282" t="s">
-        <v>121</v>
-      </c>
-      <c r="D282" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s">
-        <v>84</v>
-      </c>
-      <c r="B283" t="s">
-        <v>85</v>
-      </c>
-      <c r="C283" t="s">
-        <v>254</v>
-      </c>
-      <c r="D283" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s">
-        <v>86</v>
-      </c>
-      <c r="B284" t="s">
-        <v>87</v>
-      </c>
-      <c r="C284" t="s">
-        <v>158</v>
-      </c>
-      <c r="D284" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s">
-        <v>86</v>
-      </c>
-      <c r="B285" t="s">
-        <v>88</v>
-      </c>
-      <c r="C285" t="s">
-        <v>124</v>
-      </c>
-      <c r="D285" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s">
-        <v>86</v>
-      </c>
-      <c r="B286" t="s">
-        <v>89</v>
-      </c>
-      <c r="C286" t="s">
-        <v>256</v>
-      </c>
-      <c r="D286" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s">
-        <v>86</v>
-      </c>
-      <c r="B287" t="s">
-        <v>90</v>
-      </c>
-      <c r="C287" t="s">
-        <v>257</v>
-      </c>
-      <c r="D287" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s">
-        <v>86</v>
-      </c>
-      <c r="B288" t="s">
-        <v>91</v>
-      </c>
-      <c r="C288" t="s">
-        <v>197</v>
-      </c>
-      <c r="D288" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s">
-        <v>86</v>
-      </c>
-      <c r="B289" t="s">
-        <v>92</v>
-      </c>
-      <c r="C289" t="s">
-        <v>160</v>
-      </c>
-      <c r="D289" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>86</v>
-      </c>
-      <c r="B290" t="s">
-        <v>93</v>
-      </c>
-      <c r="C290" t="s">
-        <v>258</v>
-      </c>
-      <c r="D290" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>87</v>
-      </c>
-      <c r="B291" t="s">
-        <v>88</v>
-      </c>
-      <c r="C291" t="s">
-        <v>203</v>
-      </c>
-      <c r="D291" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>87</v>
-      </c>
-      <c r="B292" t="s">
-        <v>89</v>
-      </c>
-      <c r="C292" t="s">
-        <v>134</v>
-      </c>
-      <c r="D292" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>87</v>
-      </c>
-      <c r="B293" t="s">
-        <v>90</v>
-      </c>
-      <c r="C293" t="s">
-        <v>160</v>
-      </c>
-      <c r="D293" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
-        <v>87</v>
-      </c>
-      <c r="B294" t="s">
-        <v>91</v>
-      </c>
-      <c r="C294" t="s">
-        <v>118</v>
-      </c>
-      <c r="D294" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s">
-        <v>87</v>
-      </c>
-      <c r="B295" t="s">
-        <v>92</v>
-      </c>
-      <c r="C295" t="s">
-        <v>124</v>
-      </c>
-      <c r="D295" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
-        <v>87</v>
-      </c>
-      <c r="B296" t="s">
-        <v>93</v>
-      </c>
-      <c r="C296" t="s">
-        <v>160</v>
-      </c>
-      <c r="D296" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
-        <v>88</v>
-      </c>
-      <c r="B297" t="s">
-        <v>89</v>
-      </c>
-      <c r="C297" t="s">
-        <v>259</v>
-      </c>
-      <c r="D297" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s">
-        <v>88</v>
-      </c>
-      <c r="B298" t="s">
-        <v>90</v>
-      </c>
-      <c r="C298" t="s">
-        <v>126</v>
-      </c>
-      <c r="D298" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s">
-        <v>88</v>
-      </c>
-      <c r="B299" t="s">
-        <v>91</v>
-      </c>
-      <c r="C299" t="s">
-        <v>118</v>
-      </c>
-      <c r="D299" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s">
-        <v>88</v>
-      </c>
-      <c r="B300" t="s">
-        <v>92</v>
-      </c>
-      <c r="C300" t="s">
-        <v>160</v>
-      </c>
-      <c r="D300" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>88</v>
-      </c>
-      <c r="B301" t="s">
-        <v>93</v>
-      </c>
-      <c r="C301" t="s">
-        <v>126</v>
-      </c>
-      <c r="D301" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>89</v>
-      </c>
-      <c r="B302" t="s">
-        <v>90</v>
-      </c>
-      <c r="C302" t="s">
-        <v>260</v>
-      </c>
-      <c r="D302" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>89</v>
-      </c>
-      <c r="B303" t="s">
-        <v>91</v>
-      </c>
-      <c r="C303" t="s">
-        <v>261</v>
-      </c>
-      <c r="D303" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s">
-        <v>89</v>
-      </c>
-      <c r="B304" t="s">
-        <v>92</v>
-      </c>
-      <c r="C304" t="s">
-        <v>262</v>
-      </c>
-      <c r="D304" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s">
-        <v>89</v>
-      </c>
-      <c r="B305" t="s">
-        <v>93</v>
-      </c>
-      <c r="C305" t="s">
-        <v>263</v>
-      </c>
-      <c r="D305" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s">
-        <v>90</v>
-      </c>
-      <c r="B306" t="s">
-        <v>91</v>
-      </c>
-      <c r="C306" t="s">
-        <v>181</v>
-      </c>
-      <c r="D306" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>90</v>
-      </c>
-      <c r="B307" t="s">
-        <v>92</v>
-      </c>
-      <c r="C307" t="s">
-        <v>264</v>
-      </c>
-      <c r="D307" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s">
-        <v>90</v>
-      </c>
-      <c r="B308" t="s">
-        <v>93</v>
-      </c>
-      <c r="C308" t="s">
-        <v>160</v>
-      </c>
-      <c r="D308" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s">
-        <v>91</v>
-      </c>
-      <c r="B309" t="s">
-        <v>92</v>
-      </c>
-      <c r="C309" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s">
-        <v>91</v>
-      </c>
-      <c r="B310" t="s">
-        <v>93</v>
-      </c>
-      <c r="C310" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>92</v>
-      </c>
-      <c r="B311" t="s">
-        <v>93</v>
-      </c>
-      <c r="C311" t="s">
+      <c r="A219" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C219" s="0" t="s">
         <v>160</v>
       </c>
     </row>
